--- a/REGEN/Config_Hot_Wall_Heat_Flux.xlsx
+++ b/REGEN/Config_Hot_Wall_Heat_Flux.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Active Files\PURPL\Heat Transfer\Regen Sizing Heat Transfer Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6F61FB-90C6-4B35-AD13-E29F64853C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01A7D4E-9468-437C-84F1-A2187817E177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9730" yWindow="1410" windowWidth="11610" windowHeight="7720" xr2:uid="{001FA6F1-D078-4853-B788-531E76101D2B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{001FA6F1-D078-4853-B788-531E76101D2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Config_Hot_Wall_Heat_Flux" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Variable</t>
   </si>
@@ -67,9 +67,6 @@
     <t>sec</t>
   </si>
   <si>
-    <t>Sim Time</t>
-  </si>
-  <si>
     <t>Radial Slice Thickness</t>
   </si>
   <si>
@@ -80,6 +77,18 @@
   </si>
   <si>
     <t>J/s</t>
+  </si>
+  <si>
+    <t>Sim time max</t>
+  </si>
+  <si>
+    <t>Min Iterations til convergence</t>
+  </si>
+  <si>
+    <t>Percent Change</t>
+  </si>
+  <si>
+    <t>Convergance Threshold</t>
   </si>
 </sst>
 </file>
@@ -563,8 +572,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -940,122 +952,149 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D172E88A-B67F-43C7-BEE7-9DB6E9DF66C5}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="31.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>1.5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>800</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>8000</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>401</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>390</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>2E-3</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B9">
-        <v>1E-3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1">
+        <v>100</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
